--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1236.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1236.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.930472413887921</v>
+        <v>1.205035805702209</v>
       </c>
       <c r="B1">
-        <v>2.76387182667659</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.809973840497032</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.566766673829437</v>
+        <v>1.830756902694702</v>
       </c>
       <c r="E1">
-        <v>1.500074371931724</v>
+        <v>1.204458355903625</v>
       </c>
     </row>
   </sheetData>
